--- a/performance_eval.xlsx
+++ b/performance_eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kun\Desktop\slide-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF96C0F-7A3F-4FE1-BBC8-5FCDEDD24402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3027A039-83BC-44E7-8030-ADC06C4B41F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="8445" windowWidth="19440" windowHeight="15000" tabRatio="536" xr2:uid="{56D6BA94-91E7-564B-8B5F-E8479AFD178B}"/>
+    <workbookView xWindow="-19320" yWindow="8445" windowWidth="19440" windowHeight="15000" tabRatio="536" activeTab="1" xr2:uid="{56D6BA94-91E7-564B-8B5F-E8479AFD178B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Adv_visual" sheetId="3" r:id="rId4"/>
     <sheet name="Adv_multimodal" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="90">
   <si>
     <t>advance</t>
   </si>
@@ -253,9 +253,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>textual and visual fusion model</t>
-  </si>
-  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -276,6 +273,33 @@
   <si>
     <t>Choose the best
 configuration in each type</t>
+  </si>
+  <si>
+    <t>N gram</t>
+  </si>
+  <si>
+    <t>K Best features</t>
+  </si>
+  <si>
+    <t>NB_t (unigram, bigram)</t>
+  </si>
+  <si>
+    <t>unigram, bigram</t>
+  </si>
+  <si>
+    <t>NB_tv(unigram, bigram)</t>
+  </si>
+  <si>
+    <t>NB_t F1-score</t>
+  </si>
+  <si>
+    <t>NB_v F1-score</t>
+  </si>
+  <si>
+    <t>NB_tv F1-score</t>
+  </si>
+  <si>
+    <t>improvement(+/-)</t>
   </si>
 </sst>
 </file>
@@ -339,7 +363,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +376,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -426,11 +468,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,25 +600,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -579,28 +640,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B2877B-CC65-9149-BC13-59F5E87F1C8A}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -1132,7 +1186,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5">
@@ -1161,7 +1215,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="44"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2">
         <v>16</v>
       </c>
@@ -1188,7 +1242,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="47"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1215,7 +1269,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
@@ -1244,7 +1298,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="44"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="2">
         <v>16</v>
       </c>
@@ -1271,7 +1325,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="47"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="2">
         <v>16</v>
       </c>
@@ -1298,7 +1352,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="5">
@@ -1330,7 +1384,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="44"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="2">
         <v>16</v>
       </c>
@@ -1357,7 +1411,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.3" thickBot="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="3">
         <v>16</v>
       </c>
@@ -1384,7 +1438,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.3" thickTop="1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2">
@@ -1413,7 +1467,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="44"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -1440,7 +1494,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="47"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -1467,7 +1521,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="5">
@@ -1499,7 +1553,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="44"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="2">
         <v>4</v>
       </c>
@@ -1526,7 +1580,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.3" thickBot="1">
-      <c r="A23" s="48"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="3">
         <v>4</v>
       </c>
@@ -1553,7 +1607,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.3" thickTop="1">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4">
@@ -1582,7 +1636,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="44"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="2">
         <v>8</v>
       </c>
@@ -1609,7 +1663,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="47"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="2">
         <v>8</v>
       </c>
@@ -1636,7 +1690,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="5">
@@ -1665,7 +1719,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="50"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -1692,7 +1746,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="51"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="6">
         <v>8</v>
       </c>
@@ -1722,7 +1776,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2">
@@ -1751,7 +1805,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="44"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="2">
         <v>8</v>
       </c>
@@ -1778,7 +1832,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.3" thickBot="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="10">
         <v>8</v>
       </c>
@@ -1807,21 +1861,21 @@
     </row>
     <row r="33" spans="1:9" ht="16.3" thickTop="1"/>
     <row r="35" spans="1:9" ht="32.15" thickBot="1">
-      <c r="A35" s="52" t="s">
-        <v>81</v>
+      <c r="A35" s="42" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.3" thickTop="1">
-      <c r="A36" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="41"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -1845,13 +1899,13 @@
       <c r="F37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="55" t="s">
+      <c r="G37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1860,28 +1914,28 @@
         <v>22</v>
       </c>
       <c r="B38" s="1">
-        <v>0.80359999999999998</v>
+        <v>0.82120000000000004</v>
       </c>
       <c r="C38" s="1">
-        <v>0.63890000000000002</v>
+        <v>0.67</v>
       </c>
       <c r="D38" s="1">
-        <v>0.64949999999999997</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="E38" s="1">
-        <v>0.76919999999999999</v>
+        <v>0.79049999999999998</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5500</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1901,61 +1955,61 @@
         <v>0.5968</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.3" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.7198</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.81789999999999996</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.63319999999999999</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.77190000000000003</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>77</v>
+      <c r="G40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2500</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
@@ -1976,13 +2030,13 @@
       <c r="F42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="55" t="s">
+      <c r="H42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="55" t="s">
+      <c r="I42" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2005,7 +2059,7 @@
       <c r="F43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="55">
+      <c r="G43" s="1">
         <v>16</v>
       </c>
       <c r="H43" s="38">
@@ -2034,7 +2088,7 @@
       <c r="F44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="55">
+      <c r="G44" s="1">
         <v>4</v>
       </c>
       <c r="H44" s="38">
@@ -2076,6 +2130,8 @@
     <row r="46" spans="1:9" ht="16.3" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B41:F41"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
@@ -2084,8 +2140,6 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B41:F41"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:E17">
     <cfRule type="expression" dxfId="14" priority="16">
@@ -2170,24 +2224,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4588EAFA-B8B1-4CFC-82C3-85B35A9999FB}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="27.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.2109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.92578125" customWidth="1"/>
+    <col min="7" max="7" width="8.78515625" customWidth="1"/>
     <col min="8" max="8" width="27.35546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C1" t="s">
@@ -2199,10 +2258,10 @@
       <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="58" t="s">
+      <c r="H1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="43" t="s">
         <v>30</v>
       </c>
       <c r="J1" t="s">
@@ -2214,10 +2273,10 @@
       <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="58" t="s">
+      <c r="O1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="43" t="s">
         <v>30</v>
       </c>
       <c r="Q1" t="s">
@@ -2231,26 +2290,26 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="A2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.78949999999999998</v>
+        <v>0.84209999999999996</v>
       </c>
       <c r="D3">
-        <v>0.88239999999999996</v>
+        <v>0.9143</v>
       </c>
       <c r="E3">
         <v>19</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="43" t="s">
         <v>34</v>
       </c>
       <c r="I3">
@@ -2265,7 +2324,7 @@
       <c r="L3">
         <v>19</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="43" t="s">
         <v>34</v>
       </c>
       <c r="P3">
@@ -2282,22 +2341,22 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B4">
-        <v>0.90239999999999998</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.94869999999999999</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="E4">
         <v>37</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="43" t="s">
         <v>36</v>
       </c>
       <c r="I4">
@@ -2312,7 +2371,7 @@
       <c r="L4">
         <v>37</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="43" t="s">
         <v>36</v>
       </c>
       <c r="P4">
@@ -2329,22 +2388,22 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>0.63639999999999997</v>
+        <v>0.76</v>
       </c>
       <c r="C5">
-        <v>0.53849999999999998</v>
+        <v>0.73080000000000001</v>
       </c>
       <c r="D5">
-        <v>0.58330000000000004</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="E5">
         <v>26</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="43" t="s">
         <v>37</v>
       </c>
       <c r="I5">
@@ -2359,39 +2418,39 @@
       <c r="L5">
         <v>26</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="43" t="s">
         <v>37</v>
       </c>
       <c r="P5">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="Q5">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="R5">
         <v>0.66669999999999996</v>
-      </c>
-      <c r="Q5">
-        <v>0.46150000000000002</v>
-      </c>
-      <c r="R5">
-        <v>0.54549999999999998</v>
       </c>
       <c r="S5">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="43" t="s">
         <v>38</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.1111</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="43" t="s">
         <v>38</v>
       </c>
       <c r="I6">
@@ -2406,24 +2465,24 @@
       <c r="L6">
         <v>9</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="O6" s="43" t="s">
         <v>38</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="S6">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="43" t="s">
         <v>39</v>
       </c>
       <c r="B7">
@@ -2438,7 +2497,7 @@
       <c r="E7">
         <v>37</v>
       </c>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="43" t="s">
         <v>39</v>
       </c>
       <c r="I7">
@@ -2453,39 +2512,39 @@
       <c r="L7">
         <v>37</v>
       </c>
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="43" t="s">
         <v>39</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.94589999999999996</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="R7">
-        <v>0.97219999999999995</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="S7">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="D8">
-        <v>0.94740000000000002</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="43" t="s">
         <v>40</v>
       </c>
       <c r="I8">
@@ -2500,7 +2559,7 @@
       <c r="L8">
         <v>30</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="43" t="s">
         <v>40</v>
       </c>
       <c r="P8">
@@ -2517,22 +2576,22 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="43" t="s">
         <v>41</v>
       </c>
       <c r="B9">
-        <v>0.90239999999999998</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="C9">
-        <v>0.90239999999999998</v>
+        <v>0.85370000000000001</v>
       </c>
       <c r="D9">
-        <v>0.90239999999999998</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="E9">
         <v>41</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="43" t="s">
         <v>41</v>
       </c>
       <c r="I9">
@@ -2547,39 +2606,39 @@
       <c r="L9">
         <v>41</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="43" t="s">
         <v>41</v>
       </c>
       <c r="P9">
-        <v>0.92859999999999998</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="Q9">
         <v>0.95120000000000005</v>
       </c>
       <c r="R9">
-        <v>0.93979999999999997</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="S9">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.61899999999999999</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="D10">
-        <v>0.76470000000000005</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="E10">
         <v>21</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="43" t="s">
         <v>42</v>
       </c>
       <c r="I10">
@@ -2594,24 +2653,24 @@
       <c r="L10">
         <v>21</v>
       </c>
-      <c r="O10" s="58" t="s">
+      <c r="O10" s="43" t="s">
         <v>42</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.52380000000000004</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="R10">
-        <v>0.6875</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="S10">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B11">
@@ -2626,7 +2685,7 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="43" t="s">
         <v>43</v>
       </c>
       <c r="I11">
@@ -2641,7 +2700,7 @@
       <c r="L11">
         <v>10</v>
       </c>
-      <c r="O11" s="58" t="s">
+      <c r="O11" s="43" t="s">
         <v>43</v>
       </c>
       <c r="P11">
@@ -2658,22 +2717,22 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B12">
-        <v>0.54649999999999999</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="C12">
-        <v>0.83930000000000005</v>
+        <v>0.89290000000000003</v>
       </c>
       <c r="D12">
-        <v>0.66200000000000003</v>
+        <v>0.6623</v>
       </c>
       <c r="E12">
         <v>56</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="43" t="s">
         <v>44</v>
       </c>
       <c r="I12">
@@ -2688,39 +2747,39 @@
       <c r="L12">
         <v>56</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="43" t="s">
         <v>44</v>
       </c>
       <c r="P12">
-        <v>0.68059999999999998</v>
+        <v>0.69330000000000003</v>
       </c>
       <c r="Q12">
-        <v>0.875</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="R12">
-        <v>0.76559999999999995</v>
+        <v>0.79390000000000005</v>
       </c>
       <c r="S12">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="43" t="s">
         <v>45</v>
       </c>
       <c r="B13">
-        <v>0.65590000000000004</v>
+        <v>0.74070000000000003</v>
       </c>
       <c r="C13">
-        <v>0.91039999999999999</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="D13">
-        <v>0.76249999999999996</v>
+        <v>0.81079999999999997</v>
       </c>
       <c r="E13">
         <v>67</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="43" t="s">
         <v>45</v>
       </c>
       <c r="I13">
@@ -2735,39 +2794,39 @@
       <c r="L13">
         <v>67</v>
       </c>
-      <c r="O13" s="58" t="s">
+      <c r="O13" s="43" t="s">
         <v>45</v>
       </c>
       <c r="P13">
-        <v>0.53849999999999998</v>
+        <v>0.6038</v>
       </c>
       <c r="Q13">
-        <v>0.94030000000000002</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="R13">
-        <v>0.68479999999999996</v>
+        <v>0.7399</v>
       </c>
       <c r="S13">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>8.3299999999999999E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D14">
-        <v>0.15379999999999999</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="E14">
         <v>24</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="43" t="s">
         <v>46</v>
       </c>
       <c r="I14">
@@ -2782,38 +2841,38 @@
       <c r="L14">
         <v>24</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="43" t="s">
         <v>46</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>8.3299999999999999E-2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="R14">
-        <v>0.15379999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="S14">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="O15" s="59"/>
+      <c r="A15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D16">
-        <v>0.76919999999999999</v>
+        <v>0.79049999999999998</v>
       </c>
       <c r="E16">
         <v>377</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="43" t="s">
         <v>35</v>
       </c>
       <c r="K16">
@@ -2822,33 +2881,33 @@
       <c r="L16">
         <v>377</v>
       </c>
-      <c r="O16" s="58" t="s">
+      <c r="O16" s="43" t="s">
         <v>35</v>
       </c>
       <c r="R16">
-        <v>0.77190000000000003</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="S16">
         <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B17">
-        <v>0.80359999999999998</v>
+        <v>0.82120000000000004</v>
       </c>
       <c r="C17">
-        <v>0.63890000000000002</v>
+        <v>0.67</v>
       </c>
       <c r="D17">
-        <v>0.64949999999999997</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="E17">
         <v>377</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="43" t="s">
         <v>47</v>
       </c>
       <c r="I17">
@@ -2863,39 +2922,39 @@
       <c r="L17">
         <v>377</v>
       </c>
-      <c r="O17" s="58" t="s">
+      <c r="O17" s="43" t="s">
         <v>47</v>
       </c>
       <c r="P17">
-        <v>0.81789999999999996</v>
+        <v>0.91659999999999997</v>
       </c>
       <c r="Q17">
-        <v>0.63319999999999999</v>
+        <v>0.68340000000000001</v>
       </c>
       <c r="R17">
-        <v>0.65500000000000003</v>
+        <v>0.7198</v>
       </c>
       <c r="S17">
         <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="43" t="s">
         <v>48</v>
       </c>
       <c r="B18">
-        <v>0.79969999999999997</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="C18">
-        <v>0.76919999999999999</v>
+        <v>0.79049999999999998</v>
       </c>
       <c r="D18">
-        <v>0.73909999999999998</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="E18">
         <v>377</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I18">
@@ -2910,24 +2969,255 @@
       <c r="L18">
         <v>377</v>
       </c>
-      <c r="O18" s="58" t="s">
+      <c r="O18" s="43" t="s">
         <v>48</v>
       </c>
       <c r="P18">
-        <v>0.81589999999999996</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="Q18">
-        <v>0.77190000000000003</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="R18">
-        <v>0.74350000000000005</v>
+        <v>0.78910000000000002</v>
       </c>
       <c r="S18">
         <v>377</v>
       </c>
     </row>
+    <row r="24" spans="1:19">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="60">
+        <v>0.9143</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.8125</v>
+      </c>
+      <c r="E25" s="61">
+        <f>D25-B25</f>
+        <v>-0.1018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="60">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E36" si="0">D26-B26</f>
+        <v>6.3300000000000023E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="60">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E27" s="61">
+        <f t="shared" si="0"/>
+        <v>-7.8400000000000025E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="60">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="60">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="C29">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="60">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="C30">
+        <v>0.9153</v>
+      </c>
+      <c r="D30">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="60">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="C31">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="D31">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>6.5599999999999992E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="60">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E33" s="62">
+        <f t="shared" si="0"/>
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="60">
+        <v>0.6623</v>
+      </c>
+      <c r="C34">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="D34">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.13160000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="60">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="C35">
+        <v>0.49759999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.7399</v>
+      </c>
+      <c r="E35" s="61">
+        <f t="shared" si="0"/>
+        <v>-7.0899999999999963E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="60">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2935,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9585E41-EF43-4E30-A762-64D5175E5819}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -5206,7 +5496,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -6756,7 +7046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4A792A-D05A-4A6C-82A1-66A369AF65E8}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
@@ -9018,12 +9308,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6dec70a8-b87c-41aa-8c24-c4316beda457" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9268,17 +9557,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6dec70a8-b87c-41aa-8c24-c4316beda457" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F1D1CE-7581-4207-BB38-A627B144EEA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8DEEE3D-8557-45CA-A391-79A8792ECB69}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6dec70a8-b87c-41aa-8c24-c4316beda457"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7a14eb4d-97ee-4433-895e-cd1987fea1f2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9303,18 +9602,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8DEEE3D-8557-45CA-A391-79A8792ECB69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F1D1CE-7581-4207-BB38-A627B144EEA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6dec70a8-b87c-41aa-8c24-c4316beda457"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a14eb4d-97ee-4433-895e-cd1987fea1f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/performance_eval.xlsx
+++ b/performance_eval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kun\Desktop\slide-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3027A039-83BC-44E7-8030-ADC06C4B41F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E435C9F9-A8B9-4493-9D81-C059351A9DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="8445" windowWidth="19440" windowHeight="15000" tabRatio="536" activeTab="1" xr2:uid="{56D6BA94-91E7-564B-8B5F-E8479AFD178B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="536" xr2:uid="{56D6BA94-91E7-564B-8B5F-E8479AFD178B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="92">
   <si>
     <t>advance</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Types</t>
-  </si>
-  <si>
-    <t>F1-Score</t>
   </si>
   <si>
     <t>Testing Results</t>
@@ -301,6 +298,15 @@
   <si>
     <t>improvement(+/-)</t>
   </si>
+  <si>
+    <t>F1-Score (marco)</t>
+  </si>
+  <si>
+    <t>F1-Score(marco)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +369,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,12 +379,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,6 +616,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,17 +652,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1103,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B2877B-CC65-9149-BC13-59F5E87F1C8A}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -1114,20 +1132,21 @@
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.92578125" customWidth="1"/>
     <col min="7" max="7" width="18.35546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1154,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1162,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1151,12 +1170,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="16.3" thickBot="1"/>
-    <row r="8" spans="1:10" ht="16.3" thickTop="1">
+    <row r="7" spans="1:12" ht="16.3" thickBot="1"/>
+    <row r="8" spans="1:12" ht="16.3" thickTop="1">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1170,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>16</v>
@@ -1182,11 +1201,14 @@
         <v>6</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5">
@@ -1211,11 +1233,17 @@
         <v>0.32750000000000001</v>
       </c>
       <c r="I9" s="18">
-        <v>0.92010000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="49"/>
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="J9" s="50">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="52"/>
       <c r="B10" s="2">
         <v>16</v>
       </c>
@@ -1240,9 +1268,15 @@
       <c r="I10" s="18">
         <v>0.90720000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="50"/>
+      <c r="J10" s="50">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="53"/>
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1267,9 +1301,12 @@
       <c r="I11" s="19">
         <v>0.89429999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="48" t="s">
+      <c r="J11" s="50">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="51" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
@@ -1296,9 +1333,12 @@
       <c r="I12" s="18">
         <v>0.90980000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="49"/>
+      <c r="J12" s="50">
+        <v>0.87409999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="52"/>
       <c r="B13" s="2">
         <v>16</v>
       </c>
@@ -1323,9 +1363,12 @@
       <c r="I13" s="18">
         <v>0.86860000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="50"/>
+      <c r="J13" s="50">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="53"/>
       <c r="B14" s="2">
         <v>16</v>
       </c>
@@ -1350,9 +1393,12 @@
       <c r="I14" s="19">
         <v>0.85819999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="48" t="s">
+      <c r="J14" s="50">
+        <v>0.84719999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="5">
@@ -1379,12 +1425,13 @@
       <c r="I15" s="18">
         <v>0.89429999999999998</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="49"/>
+      <c r="J15" s="50">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="52"/>
       <c r="B16" s="2">
         <v>16</v>
       </c>
@@ -1409,9 +1456,12 @@
       <c r="I16" s="18">
         <v>0.88400000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.3" thickBot="1">
-      <c r="A17" s="51"/>
+      <c r="J16" s="50">
+        <v>0.86250000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.3" thickBot="1">
+      <c r="A17" s="54"/>
       <c r="B17" s="3">
         <v>16</v>
       </c>
@@ -1436,9 +1486,12 @@
       <c r="I17" s="20">
         <v>0.88139999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.3" thickTop="1">
-      <c r="A18" s="52" t="s">
+      <c r="J17" s="50">
+        <v>0.87350000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.3" thickTop="1">
+      <c r="A18" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2">
@@ -1465,9 +1518,12 @@
       <c r="I18" s="18">
         <v>0.78510000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="49"/>
+      <c r="J18" s="50">
+        <v>0.65990000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="52"/>
       <c r="B19" s="2">
         <v>4</v>
       </c>
@@ -1492,9 +1548,12 @@
       <c r="I19" s="18">
         <v>0.75329999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="50"/>
+      <c r="J19" s="50">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="53"/>
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -1519,9 +1578,12 @@
       <c r="I20" s="19">
         <v>0.91779999999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="48" t="s">
+      <c r="J20" s="50">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="5">
@@ -1548,12 +1610,18 @@
       <c r="I21" s="18">
         <v>0.95230000000000004</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="49"/>
+      <c r="J21" s="50">
+        <v>0.93</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="52"/>
       <c r="B22" s="2">
         <v>4</v>
       </c>
@@ -1578,9 +1646,12 @@
       <c r="I22" s="18">
         <v>0.90980000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.3" thickBot="1">
-      <c r="A23" s="51"/>
+      <c r="J22" s="50">
+        <v>0.88639999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.3" thickBot="1">
+      <c r="A23" s="54"/>
       <c r="B23" s="3">
         <v>4</v>
       </c>
@@ -1605,9 +1676,12 @@
       <c r="I23" s="20">
         <v>0.93899999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.3" thickTop="1">
-      <c r="A24" s="52" t="s">
+      <c r="J23" s="50">
+        <v>0.91959999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.3" thickTop="1">
+      <c r="A24" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4">
@@ -1634,9 +1708,12 @@
       <c r="I24" s="18">
         <v>0.9284</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="49"/>
+      <c r="J24" s="50">
+        <v>0.92310000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="52"/>
       <c r="B25" s="2">
         <v>8</v>
       </c>
@@ -1661,9 +1738,12 @@
       <c r="I25" s="18">
         <v>0.94689999999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="50"/>
+      <c r="J25" s="50">
+        <v>0.9516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="53"/>
       <c r="B26" s="2">
         <v>8</v>
       </c>
@@ -1688,9 +1768,12 @@
       <c r="I26" s="19">
         <v>0.95489999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="53" t="s">
+      <c r="J26" s="50">
+        <v>0.9516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="5">
@@ -1717,9 +1800,12 @@
       <c r="I27" s="18">
         <v>0.92310000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="54"/>
+      <c r="J27" s="50">
+        <v>0.92269999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="57"/>
       <c r="B28" s="2">
         <v>8</v>
       </c>
@@ -1744,9 +1830,12 @@
       <c r="I28" s="18">
         <v>0.95489999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="55"/>
+      <c r="J28" s="50">
+        <v>0.96060000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="58"/>
       <c r="B29" s="6">
         <v>8</v>
       </c>
@@ -1771,12 +1860,15 @@
       <c r="I29" s="19">
         <v>0.96550000000000002</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="48" t="s">
+      <c r="J29" s="50">
+        <v>0.9718</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2">
@@ -1803,9 +1895,12 @@
       <c r="I30" s="18">
         <v>0.91510000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="49"/>
+      <c r="J30" s="50">
+        <v>0.89970000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="52"/>
       <c r="B31" s="2">
         <v>8</v>
       </c>
@@ -1830,9 +1925,12 @@
       <c r="I31" s="18">
         <v>0.96009999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.3" thickBot="1">
-      <c r="A32" s="58"/>
+      <c r="J31" s="50">
+        <v>0.95989999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.3" thickBot="1">
+      <c r="A32" s="61"/>
       <c r="B32" s="10">
         <v>8</v>
       </c>
@@ -1857,30 +1955,36 @@
       <c r="I32" s="24">
         <v>0.96020000000000005</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.3" thickTop="1"/>
-    <row r="35" spans="1:9" ht="32.15" thickBot="1">
+      <c r="J32" s="50">
+        <v>0.9657</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.3" thickTop="1"/>
+    <row r="35" spans="1:10" ht="32.15" thickBot="1">
       <c r="A35" s="42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.3" thickTop="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.3" thickTop="1">
       <c r="A36" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+        <v>73</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="41"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="7" t="s">
         <v>25</v>
       </c>
@@ -1891,7 +1995,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
@@ -1900,16 +2004,17 @@
         <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1926,19 +2031,20 @@
         <v>0.79049999999999998</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H38" s="1">
         <v>5500</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -1955,19 +2061,20 @@
         <v>0.5968</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.3" thickBot="1">
+        <v>75</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="16.3" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
@@ -1984,34 +2091,35 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="1">
         <v>2500</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
+        <v>74</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -2022,7 +2130,7 @@
         <v>24</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>5</v>
@@ -2039,25 +2147,26 @@
       <c r="I42" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="1">
-        <v>0.90449999999999997</v>
+        <v>0.9052</v>
       </c>
       <c r="C43" s="1">
-        <v>0.87570000000000003</v>
+        <v>0.89</v>
       </c>
       <c r="D43" s="1">
-        <v>0.88049999999999995</v>
+        <v>0.88470000000000004</v>
       </c>
       <c r="E43" s="1">
-        <v>0.89429999999999998</v>
+        <v>0.89690000000000003</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43" s="1">
         <v>16</v>
@@ -2066,10 +2175,11 @@
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="I43" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -2097,8 +2207,9 @@
       <c r="I44" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.3" thickBot="1">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="16.3" thickBot="1">
       <c r="A45" s="10" t="s">
         <v>20</v>
       </c>
@@ -2112,10 +2223,10 @@
         <v>0.9657</v>
       </c>
       <c r="E45" s="39">
-        <v>0.96550000000000002</v>
+        <v>0.96020000000000005</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G45" s="21">
         <v>8</v>
@@ -2126,8 +2237,9 @@
       <c r="I45" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.3" thickTop="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="16.3" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B36:F36"/>
@@ -2142,79 +2254,94 @@
     <mergeCell ref="A27:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:E17">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>E9=MAX($E$9:$E$17)</formula>
     </cfRule>
-    <cfRule type="top10" priority="17" rank="10"/>
+    <cfRule type="top10" priority="20" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E23">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>E18=MAX($E$18:$E$23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26 E28:E32">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>E24=MAX($E$24:$E$32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F17">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>F9=MIN($F$9:$F$17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F23">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>F18=MIN($F$18:$F$23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F32">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>F24=MIN($F$24:$F$32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G17">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>G9=MAX($G$9:$G$17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G23">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>G18=MAX($G$18:$G$23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G32">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>G24=MAX($G$24:$G$32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H17">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>H9=MIN($H$9:$H$17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H23">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>H18=MIN($H$18:$H$23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H32">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>H24=MIN($H$24:$H$32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I17">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>I9=MAX($I$9:$I$17)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I23">
-    <cfRule type="expression" dxfId="1" priority="5">
+  <conditionalFormatting sqref="I18:J23">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>I18=MAX($I$18:$I$23)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I32">
+  <conditionalFormatting sqref="I24:J26 I27 I28:J32">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>I24=MAX($I$24:$I$32)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J17">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>J9=MAX($J$9:$J$17)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>J18=MAX(J$18:$J$23)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J32">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>I24=MAX($I$24:$I$32)</formula>
+      <formula>J24=MAX($J$24:$J$32)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2226,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4588EAFA-B8B1-4CFC-82C3-85B35A9999FB}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -2244,49 +2371,49 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
       <c r="O1" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P1" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2295,7 +2422,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2310,7 +2437,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2325,7 +2452,7 @@
         <v>19</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -2342,7 +2469,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0.88100000000000001</v>
@@ -2357,7 +2484,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>0.89659999999999995</v>
@@ -2372,7 +2499,7 @@
         <v>37</v>
       </c>
       <c r="O4" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -2389,7 +2516,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0.76</v>
@@ -2404,7 +2531,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>0.72219999999999995</v>
@@ -2419,16 +2546,16 @@
         <v>26</v>
       </c>
       <c r="O5" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5">
-        <v>0.72729999999999995</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="Q5">
-        <v>0.61539999999999995</v>
+        <v>0.65380000000000005</v>
       </c>
       <c r="R5">
-        <v>0.66669999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="S5">
         <v>26</v>
@@ -2436,7 +2563,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2451,7 +2578,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2466,7 +2593,7 @@
         <v>9</v>
       </c>
       <c r="O6" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -2483,7 +2610,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2498,7 +2625,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>0.81579999999999997</v>
@@ -2513,7 +2640,7 @@
         <v>37</v>
       </c>
       <c r="O7" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -2530,7 +2657,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2545,7 +2672,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <v>0.93100000000000005</v>
@@ -2560,7 +2687,7 @@
         <v>30</v>
       </c>
       <c r="O8" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -2577,7 +2704,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0.94589999999999996</v>
@@ -2592,7 +2719,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>0.82930000000000004</v>
@@ -2607,7 +2734,7 @@
         <v>41</v>
       </c>
       <c r="O9" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9">
         <v>0.97499999999999998</v>
@@ -2624,7 +2751,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2639,7 +2766,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2654,7 +2781,7 @@
         <v>21</v>
       </c>
       <c r="O10" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -2671,7 +2798,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2686,7 +2813,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2701,7 +2828,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -2718,7 +2845,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0.52629999999999999</v>
@@ -2733,7 +2860,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12">
         <v>0.52500000000000002</v>
@@ -2748,16 +2875,16 @@
         <v>56</v>
       </c>
       <c r="O12" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12">
-        <v>0.69330000000000003</v>
+        <v>0.71830000000000005</v>
       </c>
       <c r="Q12">
-        <v>0.92859999999999998</v>
+        <v>0.91069999999999995</v>
       </c>
       <c r="R12">
-        <v>0.79390000000000005</v>
+        <v>0.80310000000000004</v>
       </c>
       <c r="S12">
         <v>56</v>
@@ -2765,7 +2892,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0.74070000000000003</v>
@@ -2780,7 +2907,7 @@
         <v>67</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <v>0.36620000000000003</v>
@@ -2795,16 +2922,16 @@
         <v>67</v>
       </c>
       <c r="O13" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P13">
-        <v>0.6038</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="Q13">
         <v>0.95520000000000005</v>
       </c>
       <c r="R13">
-        <v>0.7399</v>
+        <v>0.73140000000000005</v>
       </c>
       <c r="S13">
         <v>67</v>
@@ -2812,7 +2939,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2827,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2842,7 +2969,7 @@
         <v>24</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -2864,7 +2991,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>0.79049999999999998</v>
@@ -2873,7 +3000,7 @@
         <v>377</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
         <v>0.5968</v>
@@ -2882,7 +3009,7 @@
         <v>377</v>
       </c>
       <c r="O16" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R16">
         <v>0.80900000000000005</v>
@@ -2893,7 +3020,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>0.82120000000000004</v>
@@ -2908,7 +3035,7 @@
         <v>377</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17">
         <v>0.42380000000000001</v>
@@ -2923,16 +3050,16 @@
         <v>377</v>
       </c>
       <c r="O17" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P17">
-        <v>0.91659999999999997</v>
+        <v>0.91620000000000001</v>
       </c>
       <c r="Q17">
-        <v>0.68340000000000001</v>
+        <v>0.68520000000000003</v>
       </c>
       <c r="R17">
-        <v>0.7198</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="S17">
         <v>377</v>
@@ -2940,7 +3067,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>0.82289999999999996</v>
@@ -2955,7 +3082,7 @@
         <v>377</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18">
         <v>0.5252</v>
@@ -2970,16 +3097,16 @@
         <v>377</v>
       </c>
       <c r="O18" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18">
-        <v>0.86250000000000004</v>
+        <v>0.8629</v>
       </c>
       <c r="Q18">
         <v>0.80900000000000005</v>
       </c>
       <c r="R18">
-        <v>0.78910000000000002</v>
+        <v>0.78990000000000005</v>
       </c>
       <c r="S18">
         <v>377</v>
@@ -2987,23 +3114,23 @@
     </row>
     <row r="24" spans="1:19">
       <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
         <v>86</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>87</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>88</v>
       </c>
-      <c r="E24" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="60">
+      <c r="A25" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
         <v>0.9143</v>
       </c>
       <c r="C25">
@@ -3012,16 +3139,16 @@
       <c r="D25">
         <v>0.8125</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="48">
         <f>D25-B25</f>
         <v>-0.1018</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="60">
+      <c r="A26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
         <v>0.93669999999999998</v>
       </c>
       <c r="C26">
@@ -3036,28 +3163,28 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="60">
+      <c r="A27" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
         <v>0.74509999999999998</v>
       </c>
       <c r="C27">
         <v>0.59089999999999998</v>
       </c>
       <c r="D27">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="E27" s="61">
+        <v>0.68</v>
+      </c>
+      <c r="E27" s="48">
         <f t="shared" si="0"/>
-        <v>-7.8400000000000025E-2</v>
+        <v>-6.5099999999999936E-2</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="60">
+      <c r="A28" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
         <v>0.36359999999999998</v>
       </c>
       <c r="C28">
@@ -3072,10 +3199,10 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="60">
+      <c r="A29" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
         <v>0.98629999999999995</v>
       </c>
       <c r="C29">
@@ -3090,10 +3217,10 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="60">
+      <c r="A30" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
         <v>0.96550000000000002</v>
       </c>
       <c r="C30">
@@ -3108,10 +3235,10 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="60">
+      <c r="A31" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
         <v>0.89739999999999998</v>
       </c>
       <c r="C31">
@@ -3126,10 +3253,10 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="60">
+      <c r="A32" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
         <v>0.72729999999999995</v>
       </c>
       <c r="C32">
@@ -3144,8 +3271,8 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="59" t="s">
-        <v>43</v>
+      <c r="A33" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3156,52 +3283,52 @@
       <c r="D33">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="49">
         <f t="shared" si="0"/>
         <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="60">
+      <c r="A34" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
         <v>0.6623</v>
       </c>
       <c r="C34">
         <v>0.61760000000000004</v>
       </c>
       <c r="D34">
-        <v>0.79390000000000005</v>
+        <v>0.80310000000000004</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>0.13160000000000005</v>
+        <v>0.14080000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="60">
+      <c r="A35" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
         <v>0.81079999999999997</v>
       </c>
       <c r="C35">
         <v>0.49759999999999999</v>
       </c>
       <c r="D35">
-        <v>0.7399</v>
-      </c>
-      <c r="E35" s="61">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E35" s="48">
         <f t="shared" si="0"/>
-        <v>-7.0899999999999963E-2</v>
+        <v>-7.9399999999999915E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="60">
+      <c r="A36" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
         <v>0.22220000000000001</v>
       </c>
       <c r="C36">
@@ -3225,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9585E41-EF43-4E30-A762-64D5175E5819}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -3250,49 +3377,49 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="I1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="35" t="s">
+      <c r="O1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -3302,7 +3429,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0.92589999999999995</v>
@@ -3317,7 +3444,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>0.96299999999999997</v>
@@ -3332,7 +3459,7 @@
         <v>26</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3">
         <v>0.96299999999999997</v>
@@ -3349,7 +3476,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0.96879999999999999</v>
@@ -3364,7 +3491,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>0.96879999999999999</v>
@@ -3379,7 +3506,7 @@
         <v>31</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4">
         <v>0.96879999999999999</v>
@@ -3396,7 +3523,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0.871</v>
@@ -3411,7 +3538,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>0.7419</v>
@@ -3426,7 +3553,7 @@
         <v>27</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5">
         <v>0.7419</v>
@@ -3443,7 +3570,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0.75</v>
@@ -3458,7 +3585,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>0.5</v>
@@ -3473,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6">
         <v>0.875</v>
@@ -3490,7 +3617,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3505,7 +3632,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3520,7 +3647,7 @@
         <v>34</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7">
         <v>0.97060000000000002</v>
@@ -3537,7 +3664,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3552,7 +3679,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3567,7 +3694,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -3584,7 +3711,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0.97299999999999998</v>
@@ -3599,7 +3726,7 @@
         <v>40</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3614,7 +3741,7 @@
         <v>44</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -3631,7 +3758,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0.93100000000000005</v>
@@ -3646,7 +3773,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <v>0.89659999999999995</v>
@@ -3661,7 +3788,7 @@
         <v>26</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10">
         <v>0.86209999999999998</v>
@@ -3678,7 +3805,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3693,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3708,7 +3835,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -3725,7 +3852,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0.64149999999999996</v>
@@ -3740,7 +3867,7 @@
         <v>39</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12">
         <v>0.66039999999999999</v>
@@ -3755,7 +3882,7 @@
         <v>35</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12">
         <v>0.69810000000000005</v>
@@ -3772,7 +3899,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0.92110000000000003</v>
@@ -3787,7 +3914,7 @@
         <v>73</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3802,7 +3929,7 @@
         <v>78</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P13">
         <v>0.93420000000000003</v>
@@ -3819,7 +3946,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0.88</v>
@@ -3834,7 +3961,7 @@
         <v>36</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3849,7 +3976,7 @@
         <v>37</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14">
         <v>0.84</v>
@@ -3871,7 +3998,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>0.89690000000000003</v>
@@ -3880,7 +4007,7 @@
         <v>388</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
         <v>0.90980000000000005</v>
@@ -3889,7 +4016,7 @@
         <v>388</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R16">
         <v>0.89429999999999998</v>
@@ -3900,7 +4027,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>0.9052</v>
@@ -3915,7 +4042,7 @@
         <v>388</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17">
         <v>0.89419999999999999</v>
@@ -3930,7 +4057,7 @@
         <v>388</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P17">
         <v>0.90449999999999997</v>
@@ -3947,7 +4074,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>0.90880000000000005</v>
@@ -3962,7 +4089,7 @@
         <v>388</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18">
         <v>0.93049999999999999</v>
@@ -3977,7 +4104,7 @@
         <v>388</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18">
         <v>0.90300000000000002</v>
@@ -4000,49 +4127,49 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>33</v>
-      </c>
       <c r="H22" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
         <v>30</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>31</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>32</v>
       </c>
-      <c r="L22" t="s">
-        <v>33</v>
-      </c>
       <c r="O22" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>31</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>32</v>
-      </c>
-      <c r="S22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -4052,7 +4179,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0.96299999999999997</v>
@@ -4067,7 +4194,7 @@
         <v>26</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24">
         <v>0.96299999999999997</v>
@@ -4082,7 +4209,7 @@
         <v>29</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -4099,7 +4226,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>0.96879999999999999</v>
@@ -4114,7 +4241,7 @@
         <v>31</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25">
         <v>0.96879999999999999</v>
@@ -4129,7 +4256,7 @@
         <v>31</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P25">
         <v>0.96879999999999999</v>
@@ -4146,7 +4273,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>0.871</v>
@@ -4161,7 +4288,7 @@
         <v>29</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>0.8387</v>
@@ -4176,7 +4303,7 @@
         <v>29</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P26">
         <v>0.6774</v>
@@ -4193,7 +4320,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4208,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>0.875</v>
@@ -4223,7 +4350,7 @@
         <v>8</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P27">
         <v>0.875</v>
@@ -4240,7 +4367,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4255,7 +4382,7 @@
         <v>34</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28">
         <v>0.97060000000000002</v>
@@ -4270,7 +4397,7 @@
         <v>33</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -4287,7 +4414,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>0.96430000000000005</v>
@@ -4302,7 +4429,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -4317,7 +4444,7 @@
         <v>35</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -4334,7 +4461,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4349,7 +4476,7 @@
         <v>41</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I30">
         <v>0.97299999999999998</v>
@@ -4364,7 +4491,7 @@
         <v>45</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P30">
         <v>0.97299999999999998</v>
@@ -4381,7 +4508,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0.96550000000000002</v>
@@ -4396,7 +4523,7 @@
         <v>29</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I31">
         <v>0.8276</v>
@@ -4411,7 +4538,7 @@
         <v>24</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31">
         <v>0.89659999999999995</v>
@@ -4428,7 +4555,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0.625</v>
@@ -4443,7 +4570,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -4458,7 +4585,7 @@
         <v>13</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P32">
         <v>0.875</v>
@@ -4475,7 +4602,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0.94340000000000002</v>
@@ -4490,7 +4617,7 @@
         <v>66</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33">
         <v>0.50939999999999996</v>
@@ -4505,7 +4632,7 @@
         <v>29</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33">
         <v>0.69810000000000005</v>
@@ -4522,7 +4649,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0.82889999999999997</v>
@@ -4537,7 +4664,7 @@
         <v>65</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34">
         <v>0.90790000000000004</v>
@@ -4552,7 +4679,7 @@
         <v>77</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P34">
         <v>0.90790000000000004</v>
@@ -4569,7 +4696,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0.64</v>
@@ -4584,7 +4711,7 @@
         <v>21</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35">
         <v>0.88</v>
@@ -4599,7 +4726,7 @@
         <v>35</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35">
         <v>0.8</v>
@@ -4621,7 +4748,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37">
         <v>0.90720000000000001</v>
@@ -4630,7 +4757,7 @@
         <v>388</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K37">
         <v>0.86860000000000004</v>
@@ -4639,7 +4766,7 @@
         <v>388</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R37">
         <v>0.88400000000000001</v>
@@ -4650,7 +4777,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>0.89749999999999996</v>
@@ -4665,7 +4792,7 @@
         <v>388</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38">
         <v>0.89280000000000004</v>
@@ -4680,7 +4807,7 @@
         <v>388</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P38">
         <v>0.88929999999999998</v>
@@ -4697,7 +4824,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>0.91569999999999996</v>
@@ -4712,7 +4839,7 @@
         <v>388</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39">
         <v>0.89800000000000002</v>
@@ -4727,7 +4854,7 @@
         <v>388</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P39">
         <v>0.89410000000000001</v>
@@ -4744,49 +4871,49 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
         <v>30</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>32</v>
       </c>
-      <c r="E42" t="s">
-        <v>33</v>
-      </c>
       <c r="H42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="P42" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" t="s">
         <v>30</v>
       </c>
-      <c r="J42" t="s">
+      <c r="R42" t="s">
         <v>31</v>
       </c>
-      <c r="K42" t="s">
+      <c r="S42" t="s">
         <v>32</v>
-      </c>
-      <c r="L42" t="s">
-        <v>33</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>31</v>
-      </c>
-      <c r="R42" t="s">
-        <v>32</v>
-      </c>
-      <c r="S42" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -4796,7 +4923,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44">
         <v>0.96299999999999997</v>
@@ -4811,7 +4938,7 @@
         <v>27</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44">
         <v>0.92589999999999995</v>
@@ -4826,7 +4953,7 @@
         <v>26</v>
       </c>
       <c r="O44" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -4843,7 +4970,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>0.96879999999999999</v>
@@ -4858,7 +4985,7 @@
         <v>31</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I45">
         <v>0.96879999999999999</v>
@@ -4873,7 +5000,7 @@
         <v>31</v>
       </c>
       <c r="O45" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P45">
         <v>0.96879999999999999</v>
@@ -4890,7 +5017,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46">
         <v>0.8387</v>
@@ -4905,7 +5032,7 @@
         <v>27</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I46">
         <v>0.7097</v>
@@ -4920,7 +5047,7 @@
         <v>25</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P46">
         <v>0.7742</v>
@@ -4937,7 +5064,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47">
         <v>0.875</v>
@@ -4952,7 +5079,7 @@
         <v>8</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I47">
         <v>0.75</v>
@@ -4967,7 +5094,7 @@
         <v>10</v>
       </c>
       <c r="O47" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -4984,7 +5111,7 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4999,7 +5126,7 @@
         <v>34</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -5014,7 +5141,7 @@
         <v>34</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -5031,7 +5158,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49">
         <v>0.96430000000000005</v>
@@ -5046,7 +5173,7 @@
         <v>29</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -5061,7 +5188,7 @@
         <v>30</v>
       </c>
       <c r="O49" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -5078,7 +5205,7 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>0.97299999999999998</v>
@@ -5093,7 +5220,7 @@
         <v>41</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -5108,7 +5235,7 @@
         <v>61</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P50">
         <v>0.97299999999999998</v>
@@ -5125,7 +5252,7 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51">
         <v>0.79310000000000003</v>
@@ -5140,7 +5267,7 @@
         <v>23</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I51">
         <v>0.8276</v>
@@ -5155,7 +5282,7 @@
         <v>24</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P51">
         <v>0.86209999999999998</v>
@@ -5172,7 +5299,7 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -5187,7 +5314,7 @@
         <v>11</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -5202,7 +5329,7 @@
         <v>12</v>
       </c>
       <c r="O52" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -5219,7 +5346,7 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>0.90569999999999995</v>
@@ -5234,7 +5361,7 @@
         <v>70</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I53">
         <v>0.56599999999999995</v>
@@ -5249,7 +5376,7 @@
         <v>39</v>
       </c>
       <c r="O53" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P53">
         <v>0.6038</v>
@@ -5266,7 +5393,7 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>0.89470000000000005</v>
@@ -5281,7 +5408,7 @@
         <v>71</v>
       </c>
       <c r="H54" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I54">
         <v>0.90790000000000004</v>
@@ -5296,7 +5423,7 @@
         <v>72</v>
       </c>
       <c r="O54" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P54">
         <v>0.90790000000000004</v>
@@ -5313,7 +5440,7 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55">
         <v>0.52</v>
@@ -5328,7 +5455,7 @@
         <v>16</v>
       </c>
       <c r="H55" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I55">
         <v>0.76</v>
@@ -5343,7 +5470,7 @@
         <v>24</v>
       </c>
       <c r="O55" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P55">
         <v>0.8</v>
@@ -5365,7 +5492,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57">
         <v>0.89429999999999998</v>
@@ -5374,7 +5501,7 @@
         <v>388</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K57">
         <v>0.85819999999999996</v>
@@ -5383,7 +5510,7 @@
         <v>388</v>
       </c>
       <c r="O57" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R57">
         <v>0.88139999999999996</v>
@@ -5394,7 +5521,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58">
         <v>0.89129999999999998</v>
@@ -5409,7 +5536,7 @@
         <v>388</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58">
         <v>0.86799999999999999</v>
@@ -5424,7 +5551,7 @@
         <v>388</v>
       </c>
       <c r="O58" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P58">
         <v>0.90749999999999997</v>
@@ -5441,7 +5568,7 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>0.9073</v>
@@ -5456,7 +5583,7 @@
         <v>388</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59">
         <v>0.88119999999999998</v>
@@ -5471,7 +5598,7 @@
         <v>388</v>
       </c>
       <c r="O59" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P59">
         <v>0.89770000000000005</v>
@@ -5496,7 +5623,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -5515,34 +5642,34 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -5551,7 +5678,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0.8125</v>
@@ -5566,7 +5693,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5583,7 +5710,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0.85709999999999997</v>
@@ -5598,7 +5725,7 @@
         <v>38</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>0.97619999999999996</v>
@@ -5615,7 +5742,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0.89470000000000005</v>
@@ -5630,7 +5757,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>0.84209999999999996</v>
@@ -5647,7 +5774,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5662,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>0.8</v>
@@ -5679,7 +5806,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0.94740000000000002</v>
@@ -5694,7 +5821,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5711,7 +5838,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5726,7 +5853,7 @@
         <v>37</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5743,7 +5870,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0.83330000000000004</v>
@@ -5758,7 +5885,7 @@
         <v>39</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5775,7 +5902,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0.95650000000000002</v>
@@ -5790,7 +5917,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <v>0.91300000000000003</v>
@@ -5807,7 +5934,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5822,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11">
         <v>0.90910000000000002</v>
@@ -5839,7 +5966,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0.88</v>
@@ -5854,7 +5981,7 @@
         <v>55</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12">
         <v>0.98</v>
@@ -5871,7 +5998,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0.81540000000000001</v>
@@ -5886,7 +6013,7 @@
         <v>62</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <v>0.96919999999999995</v>
@@ -5903,7 +6030,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0.36</v>
@@ -5918,7 +6045,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <v>0.8</v>
@@ -5939,7 +6066,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>0.78510000000000002</v>
@@ -5948,7 +6075,7 @@
         <v>377</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
         <v>0.95230000000000004</v>
@@ -5959,7 +6086,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>0.69640000000000002</v>
@@ -5974,7 +6101,7 @@
         <v>377</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17">
         <v>0.9325</v>
@@ -5991,7 +6118,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>0.85089999999999999</v>
@@ -6006,7 +6133,7 @@
         <v>377</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18">
         <v>0.95369999999999999</v>
@@ -6023,34 +6150,34 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
       <c r="H22" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
         <v>30</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>31</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>32</v>
-      </c>
-      <c r="L22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -6059,7 +6186,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0.625</v>
@@ -6074,7 +6201,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24">
         <v>0.9375</v>
@@ -6091,7 +6218,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>0.85709999999999997</v>
@@ -6106,7 +6233,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25">
         <v>0.97619999999999996</v>
@@ -6123,7 +6250,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>0.78949999999999998</v>
@@ -6138,7 +6265,7 @@
         <v>29</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>0.63160000000000005</v>
@@ -6155,7 +6282,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>6.6699999999999995E-2</v>
@@ -6170,7 +6297,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>0.8</v>
@@ -6187,7 +6314,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>0.94740000000000002</v>
@@ -6202,7 +6329,7 @@
         <v>37</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28">
         <v>0.97370000000000001</v>
@@ -6219,7 +6346,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>0.9355</v>
@@ -6234,7 +6361,7 @@
         <v>33</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I29">
         <v>0.9677</v>
@@ -6251,7 +6378,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>0.76190000000000002</v>
@@ -6266,7 +6393,7 @@
         <v>35</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I30">
         <v>0.95240000000000002</v>
@@ -6283,7 +6410,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0.73909999999999998</v>
@@ -6298,7 +6425,7 @@
         <v>21</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I31">
         <v>0.86960000000000004</v>
@@ -6315,7 +6442,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6330,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I32">
         <v>0.90910000000000002</v>
@@ -6347,7 +6474,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0.92</v>
@@ -6362,7 +6489,7 @@
         <v>74</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33">
         <v>0.98</v>
@@ -6379,7 +6506,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0.81540000000000001</v>
@@ -6394,7 +6521,7 @@
         <v>68</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34">
         <v>0.90769999999999995</v>
@@ -6411,7 +6538,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0.36</v>
@@ -6426,7 +6553,7 @@
         <v>23</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35">
         <v>0.72</v>
@@ -6447,7 +6574,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37">
         <v>0.75329999999999997</v>
@@ -6456,7 +6583,7 @@
         <v>377</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K37">
         <v>0.90980000000000005</v>
@@ -6467,7 +6594,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>0.65149999999999997</v>
@@ -6482,7 +6609,7 @@
         <v>377</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38">
         <v>0.88549999999999995</v>
@@ -6499,7 +6626,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>0.80720000000000003</v>
@@ -6514,7 +6641,7 @@
         <v>377</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39">
         <v>0.91500000000000004</v>
@@ -6531,34 +6658,34 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
         <v>30</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>31</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>32</v>
       </c>
-      <c r="E43" t="s">
-        <v>33</v>
-      </c>
       <c r="H43" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I43" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
         <v>30</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>31</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>32</v>
-      </c>
-      <c r="L43" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -6567,7 +6694,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6582,7 +6709,7 @@
         <v>16</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -6599,7 +6726,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>0.97619999999999996</v>
@@ -6614,7 +6741,7 @@
         <v>44</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I46">
         <v>0.97619999999999996</v>
@@ -6631,7 +6758,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47">
         <v>0.63160000000000005</v>
@@ -6646,7 +6773,7 @@
         <v>14</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I47">
         <v>0.84209999999999996</v>
@@ -6663,7 +6790,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>0.33329999999999999</v>
@@ -6678,7 +6805,7 @@
         <v>5</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I48">
         <v>0.6</v>
@@ -6695,7 +6822,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6710,7 +6837,7 @@
         <v>38</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -6727,7 +6854,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6742,7 +6869,7 @@
         <v>32</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -6759,7 +6886,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6774,7 +6901,7 @@
         <v>46</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -6791,7 +6918,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52">
         <v>0.95650000000000002</v>
@@ -6806,7 +6933,7 @@
         <v>23</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I52">
         <v>0.91300000000000003</v>
@@ -6823,7 +6950,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6838,7 +6965,7 @@
         <v>27</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I53">
         <v>0.90910000000000002</v>
@@ -6855,7 +6982,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54">
         <v>0.94</v>
@@ -6870,7 +6997,7 @@
         <v>47</v>
       </c>
       <c r="H54" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I54">
         <v>0.94</v>
@@ -6887,7 +7014,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55">
         <v>0.96919999999999995</v>
@@ -6902,7 +7029,7 @@
         <v>67</v>
       </c>
       <c r="H55" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I55">
         <v>0.96919999999999995</v>
@@ -6919,7 +7046,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56">
         <v>0.72</v>
@@ -6934,7 +7061,7 @@
         <v>18</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I56">
         <v>0.8</v>
@@ -6955,7 +7082,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58">
         <v>0.91779999999999995</v>
@@ -6964,7 +7091,7 @@
         <v>377</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K58">
         <v>0.93899999999999995</v>
@@ -6975,7 +7102,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59">
         <v>0.87719999999999998</v>
@@ -6990,7 +7117,7 @@
         <v>377</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59">
         <v>0.91249999999999998</v>
@@ -7007,7 +7134,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>0.94569999999999999</v>
@@ -7022,7 +7149,7 @@
         <v>377</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60">
         <v>0.94469999999999998</v>
@@ -7046,8 +7173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4A792A-D05A-4A6C-82A1-66A369AF65E8}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -7071,49 +7198,49 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -7123,7 +7250,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0.73329999999999995</v>
@@ -7138,7 +7265,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>0.8</v>
@@ -7153,7 +7280,7 @@
         <v>13</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3">
         <v>0.66669999999999996</v>
@@ -7170,7 +7297,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0.97440000000000004</v>
@@ -7185,7 +7312,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -7200,7 +7327,7 @@
         <v>41</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4">
         <v>0.97440000000000004</v>
@@ -7217,7 +7344,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0.93330000000000002</v>
@@ -7232,7 +7359,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>0.93330000000000002</v>
@@ -7247,7 +7374,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5">
         <v>0.93330000000000002</v>
@@ -7264,7 +7391,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7279,7 +7406,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -7294,7 +7421,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6">
         <v>0.75</v>
@@ -7311,7 +7438,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7326,7 +7453,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -7341,7 +7468,7 @@
         <v>24</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -7358,7 +7485,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7373,7 +7500,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7388,7 +7515,7 @@
         <v>30</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -7405,7 +7532,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0.97299999999999998</v>
@@ -7420,7 +7547,7 @@
         <v>39</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>0.97299999999999998</v>
@@ -7435,7 +7562,7 @@
         <v>42</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -7452,7 +7579,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -7467,7 +7594,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7482,7 +7609,7 @@
         <v>15</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -7499,7 +7626,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0.93330000000000002</v>
@@ -7515,7 +7642,7 @@
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11">
         <v>0.93330000000000002</v>
@@ -7530,7 +7657,7 @@
         <v>15</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11">
         <v>0.93330000000000002</v>
@@ -7547,7 +7674,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0.9153</v>
@@ -7562,7 +7689,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12">
         <v>0.88139999999999996</v>
@@ -7577,7 +7704,7 @@
         <v>55</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12">
         <v>0.93220000000000003</v>
@@ -7594,7 +7721,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0.97399999999999998</v>
@@ -7609,7 +7736,7 @@
         <v>87</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <v>0.94810000000000005</v>
@@ -7624,7 +7751,7 @@
         <v>84</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P13">
         <v>0.96099999999999997</v>
@@ -7641,7 +7768,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0.57689999999999997</v>
@@ -7656,7 +7783,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <v>0.57689999999999997</v>
@@ -7671,7 +7798,7 @@
         <v>18</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -7693,7 +7820,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>0.9284</v>
@@ -7702,7 +7829,7 @@
         <v>377</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
         <v>0.92310000000000003</v>
@@ -7711,7 +7838,7 @@
         <v>377</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R16">
         <v>0.91510000000000002</v>
@@ -7722,7 +7849,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>0.91779999999999995</v>
@@ -7737,7 +7864,7 @@
         <v>377</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17">
         <v>0.92049999999999998</v>
@@ -7752,7 +7879,7 @@
         <v>377</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P17">
         <v>0.88759999999999994</v>
@@ -7769,7 +7896,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>0.94230000000000003</v>
@@ -7784,7 +7911,7 @@
         <v>377</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18">
         <v>0.93340000000000001</v>
@@ -7799,7 +7926,7 @@
         <v>377</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18">
         <v>0.93279999999999996</v>
@@ -7816,49 +7943,49 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
       <c r="H22" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
         <v>30</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>31</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>32</v>
       </c>
-      <c r="L22" t="s">
-        <v>33</v>
-      </c>
       <c r="O22" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>31</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>32</v>
-      </c>
-      <c r="S22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -7868,7 +7995,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>0.86670000000000003</v>
@@ -7883,7 +8010,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24">
         <v>0.86670000000000003</v>
@@ -7898,7 +8025,7 @@
         <v>13</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P24">
         <v>0.86670000000000003</v>
@@ -7915,7 +8042,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>0.97440000000000004</v>
@@ -7930,7 +8057,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25">
         <v>0.97440000000000004</v>
@@ -7945,7 +8072,7 @@
         <v>41</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P25">
         <v>0.97440000000000004</v>
@@ -7962,7 +8089,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>0.93330000000000002</v>
@@ -7977,7 +8104,7 @@
         <v>28</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>0.9667</v>
@@ -7992,7 +8119,7 @@
         <v>29</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P26">
         <v>0.93330000000000002</v>
@@ -8009,7 +8136,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -8024,7 +8151,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -8039,7 +8166,7 @@
         <v>12</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P27">
         <v>0.91669999999999996</v>
@@ -8056,7 +8183,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -8071,7 +8198,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -8086,7 +8213,7 @@
         <v>24</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -8103,7 +8230,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -8118,7 +8245,7 @@
         <v>30</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -8133,7 +8260,7 @@
         <v>30</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -8150,7 +8277,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -8165,7 +8292,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -8180,7 +8307,7 @@
         <v>39</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -8197,7 +8324,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -8212,7 +8339,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -8227,7 +8354,7 @@
         <v>14</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -8244,7 +8371,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0.93330000000000002</v>
@@ -8259,7 +8386,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8274,7 +8401,7 @@
         <v>15</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P32">
         <v>0.93330000000000002</v>
@@ -8291,7 +8418,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0.94920000000000004</v>
@@ -8306,7 +8433,7 @@
         <v>61</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33">
         <v>0.9153</v>
@@ -8321,7 +8448,7 @@
         <v>55</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33">
         <v>0.93220000000000003</v>
@@ -8338,7 +8465,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0.93510000000000004</v>
@@ -8353,7 +8480,7 @@
         <v>79</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34">
         <v>0.94810000000000005</v>
@@ -8368,7 +8495,7 @@
         <v>79</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P34">
         <v>0.97399999999999998</v>
@@ -8385,7 +8512,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0.57689999999999997</v>
@@ -8400,7 +8527,7 @@
         <v>21</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35">
         <v>0.84619999999999995</v>
@@ -8415,7 +8542,7 @@
         <v>26</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35">
         <v>0.92310000000000003</v>
@@ -8437,7 +8564,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37">
         <v>0.94689999999999996</v>
@@ -8446,7 +8573,7 @@
         <v>377</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K37">
         <v>0.95489999999999997</v>
@@ -8455,7 +8582,7 @@
         <v>377</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R37">
         <v>0.96009999999999995</v>
@@ -8466,7 +8593,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>0.94679999999999997</v>
@@ -8481,7 +8608,7 @@
         <v>377</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38">
         <v>0.95979999999999999</v>
@@ -8496,7 +8623,7 @@
         <v>377</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P38">
         <v>0.95450000000000002</v>
@@ -8513,7 +8640,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>0.9506</v>
@@ -8528,7 +8655,7 @@
         <v>377</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39">
         <v>0.95620000000000005</v>
@@ -8543,7 +8670,7 @@
         <v>377</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P39">
         <v>0.96109999999999995</v>
@@ -8560,49 +8687,49 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B43" t="s">
+      <c r="I43" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
         <v>30</v>
       </c>
-      <c r="C43" t="s">
+      <c r="K43" t="s">
         <v>31</v>
       </c>
-      <c r="D43" t="s">
+      <c r="L43" t="s">
         <v>32</v>
       </c>
-      <c r="E43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="35" t="s">
+      <c r="O43" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" t="s">
         <v>30</v>
       </c>
-      <c r="J43" t="s">
+      <c r="R43" t="s">
         <v>31</v>
       </c>
-      <c r="K43" t="s">
+      <c r="S43" t="s">
         <v>32</v>
-      </c>
-      <c r="L43" t="s">
-        <v>33</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="P43" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>31</v>
-      </c>
-      <c r="R43" t="s">
-        <v>32</v>
-      </c>
-      <c r="S43" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -8612,7 +8739,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45">
         <v>0.86670000000000003</v>
@@ -8627,7 +8754,7 @@
         <v>13</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I45">
         <v>0.86670000000000003</v>
@@ -8642,7 +8769,7 @@
         <v>13</v>
       </c>
       <c r="O45" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P45">
         <v>0.86670000000000003</v>
@@ -8659,7 +8786,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8674,7 +8801,7 @@
         <v>42</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8689,7 +8816,7 @@
         <v>42</v>
       </c>
       <c r="O46" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -8706,7 +8833,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47">
         <v>0.93330000000000002</v>
@@ -8721,7 +8848,7 @@
         <v>28</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8736,7 +8863,7 @@
         <v>30</v>
       </c>
       <c r="O47" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P47">
         <v>0.9667</v>
@@ -8753,7 +8880,7 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8768,7 +8895,7 @@
         <v>12</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8783,7 +8910,7 @@
         <v>12</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -8800,7 +8927,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <v>0.95830000000000004</v>
@@ -8815,7 +8942,7 @@
         <v>23</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -8830,7 +8957,7 @@
         <v>24</v>
       </c>
       <c r="O49" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -8847,7 +8974,7 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8862,7 +8989,7 @@
         <v>30</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -8877,7 +9004,7 @@
         <v>31</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -8894,7 +9021,7 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8909,7 +9036,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8924,7 +9051,7 @@
         <v>40</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -8941,7 +9068,7 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8956,7 +9083,7 @@
         <v>13</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -8971,7 +9098,7 @@
         <v>13</v>
       </c>
       <c r="O52" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -8988,7 +9115,7 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53">
         <v>0.93330000000000002</v>
@@ -9003,7 +9130,7 @@
         <v>14</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -9018,7 +9145,7 @@
         <v>15</v>
       </c>
       <c r="O53" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -9035,7 +9162,7 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54">
         <v>0.93220000000000003</v>
@@ -9050,7 +9177,7 @@
         <v>60</v>
       </c>
       <c r="H54" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I54">
         <v>0.93220000000000003</v>
@@ -9065,7 +9192,7 @@
         <v>57</v>
       </c>
       <c r="O54" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P54">
         <v>0.9153</v>
@@ -9082,7 +9209,7 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55">
         <v>0.94810000000000005</v>
@@ -9097,7 +9224,7 @@
         <v>77</v>
       </c>
       <c r="H55" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I55">
         <v>0.93510000000000004</v>
@@ -9112,7 +9239,7 @@
         <v>74</v>
       </c>
       <c r="O55" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P55">
         <v>0.98699999999999999</v>
@@ -9129,7 +9256,7 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56">
         <v>0.88460000000000005</v>
@@ -9144,7 +9271,7 @@
         <v>25</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I56">
         <v>0.92310000000000003</v>
@@ -9159,7 +9286,7 @@
         <v>26</v>
       </c>
       <c r="O56" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P56">
         <v>0.76919999999999999</v>
@@ -9181,16 +9308,16 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58">
-        <v>0.94689999999999996</v>
+        <v>0.95489999999999997</v>
       </c>
       <c r="E58">
         <v>377</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K58">
         <v>0.96550000000000002</v>
@@ -9199,7 +9326,7 @@
         <v>377</v>
       </c>
       <c r="O58" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R58">
         <v>0.96020000000000005</v>
@@ -9210,22 +9337,22 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59">
-        <v>0.94679999999999997</v>
+        <v>0.95469999999999999</v>
       </c>
       <c r="C59">
-        <v>0.96030000000000004</v>
+        <v>0.96989999999999998</v>
       </c>
       <c r="D59">
-        <v>0.9516</v>
+        <v>0.96140000000000003</v>
       </c>
       <c r="E59">
         <v>377</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59">
         <v>0.97140000000000004</v>
@@ -9240,7 +9367,7 @@
         <v>377</v>
       </c>
       <c r="O59" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P59">
         <v>0.9587</v>
@@ -9257,22 +9384,22 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60">
-        <v>0.9506</v>
+        <v>0.95640000000000003</v>
       </c>
       <c r="C60">
-        <v>0.94689999999999996</v>
+        <v>0.95489999999999997</v>
       </c>
       <c r="D60">
-        <v>0.94750000000000001</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="E60">
         <v>377</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60">
         <v>0.96709999999999996</v>
@@ -9287,7 +9414,7 @@
         <v>377</v>
       </c>
       <c r="O60" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P60">
         <v>0.96450000000000002</v>
